--- a/input_file/input_file.xlsx
+++ b/input_file/input_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\scaler\repo\Video_downloader\input_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06E4349-1E0A-49FC-A7B0-D9D4E6894115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43CCD34-0EB1-482E-8555-E7BF65E20DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A5137B94-015B-43C9-8D95-F2057CF02A4D}"/>
   </bookViews>
@@ -34,18 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>downloadStart</t>
-  </si>
-  <si>
-    <t>downloadEnd</t>
   </si>
   <si>
     <t>fileName</t>
   </si>
   <si>
-    <t>Url</t>
+    <t>last_video_url</t>
   </si>
 </sst>
 </file>
@@ -118,7 +115,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -143,28 +140,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -222,13 +197,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{900D5BB0-6EDB-4817-8C74-8DC3A6E25CE5}" name="Table1" displayName="Table1" ref="A1:D2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:D2" xr:uid="{900D5BB0-6EDB-4817-8C74-8DC3A6E25CE5}"/>
-  <tableColumns count="4">
-    <tableColumn id="3" xr3:uid="{31747FD5-25AA-4EBC-B2B7-547E66A6351B}" name="downloadStart" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{B6A1475E-0814-44EC-B170-AF8524A73825}" name="downloadEnd" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{900D5BB0-6EDB-4817-8C74-8DC3A6E25CE5}" name="Table1" displayName="Table1" ref="A1:C2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:C2" xr:uid="{900D5BB0-6EDB-4817-8C74-8DC3A6E25CE5}"/>
+  <tableColumns count="3">
+    <tableColumn id="3" xr3:uid="{31747FD5-25AA-4EBC-B2B7-547E66A6351B}" name="downloadStart" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{FC24DBDB-98DD-49ED-B761-DFCBBD4A6B4B}" name="fileName" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{F0B2ECA2-8D77-46D6-9D7D-C29C46B9751B}" name="Url" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{F0B2ECA2-8D77-46D6-9D7D-C29C46B9751B}" name="last_video_url" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -531,39 +505,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24292A8-EDA6-4464-83DB-24AAFC30B18C}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input_file/input_file.xlsx
+++ b/input_file/input_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\scaler\repo\Video_downloader\input_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43CCD34-0EB1-482E-8555-E7BF65E20DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCB24AB-0090-40D2-8284-BD8858ED8A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A5137B94-015B-43C9-8D95-F2057CF02A4D}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>downloadStart</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>fileName</t>
   </si>
@@ -105,17 +102,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -140,28 +136,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -197,10 +171,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{900D5BB0-6EDB-4817-8C74-8DC3A6E25CE5}" name="Table1" displayName="Table1" ref="A1:C2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{900D5BB0-6EDB-4817-8C74-8DC3A6E25CE5}"/>
-  <tableColumns count="3">
-    <tableColumn id="3" xr3:uid="{31747FD5-25AA-4EBC-B2B7-547E66A6351B}" name="downloadStart" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{900D5BB0-6EDB-4817-8C74-8DC3A6E25CE5}" name="Table1" displayName="Table1" ref="A1:B2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:B2" xr:uid="{900D5BB0-6EDB-4817-8C74-8DC3A6E25CE5}"/>
+  <tableColumns count="2">
     <tableColumn id="5" xr3:uid="{FC24DBDB-98DD-49ED-B761-DFCBBD4A6B4B}" name="fileName" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{F0B2ECA2-8D77-46D6-9D7D-C29C46B9751B}" name="last_video_url" dataDxfId="0"/>
   </tableColumns>
@@ -505,34 +478,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24292A8-EDA6-4464-83DB-24AAFC30B18C}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
